--- a/java0806.xlsx
+++ b/java0806.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tech\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tech\git091003\takadanobaba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974A3AFA-1055-42C2-AA50-B6D994E5E1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91750C3D-51EE-4BAF-BE9D-552AFC6D28E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4E66D92B-47AA-4560-95E7-0C063DF622C5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="5" xr2:uid="{4E66D92B-47AA-4560-95E7-0C063DF622C5}"/>
   </bookViews>
   <sheets>
     <sheet name="GIT操作" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="新规JAVA工程" sheetId="1" r:id="rId2"/>
+    <sheet name="ASCII" sheetId="3" r:id="rId3"/>
+    <sheet name="CACHE图" sheetId="5" r:id="rId4"/>
+    <sheet name="MYBATIS" sheetId="6" r:id="rId5"/>
+    <sheet name="数据库操作软件" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>启动ECLIPSE，选择工作区（相对路径，绝对路径）</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -73,6 +76,70 @@
   </si>
   <si>
     <t>java -jar jar文件名 参数1 参数N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>画面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CACHE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬盘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>common.js</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>REFRESH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MYBATIS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MYSQL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5M2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MYSQL WORKBENCH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEB画面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -80,7 +147,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,16 +170,36 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -120,6 +207,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -127,11 +309,104 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1053,7 +1328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78284B3-D275-487B-8CE9-BB89A9127A8B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A63" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
@@ -1073,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B11AB39-9726-4D54-BFB6-DCFCAD2649F2}">
   <dimension ref="A2:G215"/>
   <sheetViews>
-    <sheetView topLeftCell="A200" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E218" sqref="E218"/>
+    <sheetView topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F227" sqref="F227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1150,4 +1425,295 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5FAF62-BDF6-467B-A9B4-5C51751E9433}">
+  <dimension ref="B3:K23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E5" s="5"/>
+      <c r="F5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="12" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="12"/>
+      <c r="C13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="12"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="12"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="12"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="19" spans="2:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F21" s="5"/>
+      <c r="G21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F22" s="5"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="2:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F23" s="8"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE47C545-D05C-4272-BB24-A3BF2E934855}">
+  <dimension ref="D5:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D7" s="13"/>
+      <c r="E7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="4:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="21"/>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A34BE3-D10D-4B83-A584-296511489784}">
+  <dimension ref="D2:J13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="4:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="32"/>
+    </row>
+    <row r="3" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="E3" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24"/>
+    </row>
+    <row r="4" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="E4" s="25"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="E5" s="25"/>
+      <c r="F5" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="27"/>
+    </row>
+    <row r="6" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="E6" s="25"/>
+      <c r="F6" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="27"/>
+    </row>
+    <row r="7" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="E7" s="25"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27"/>
+    </row>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="E8" s="25"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="27"/>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="E9" s="25"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="27"/>
+    </row>
+    <row r="10" spans="4:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="29"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="31"/>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>